--- a/index.xlsx
+++ b/index.xlsx
@@ -19,27 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>我的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +46,30 @@
   </si>
   <si>
     <t>斯蒂芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收对象验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收对象辅助码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,63 +395,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="18.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12645" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斯蒂芬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +66,10 @@
   </si>
   <si>
     <t>附加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -408,22 +408,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -436,8 +436,8 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="D2">
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -450,8 +450,22 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2222</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12645" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12645" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>我的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>而</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的一切</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +402,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,8 +459,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>123</v>
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>

--- a/index.xlsx
+++ b/index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>我的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,15 +65,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附加1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>而</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>你的一切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马上运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,18 +403,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="18.375" customWidth="1"/>
+    <col min="1" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="9" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -427,10 +435,13 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -444,7 +455,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -458,15 +469,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>2222</v>
